--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>123.9889473333333</v>
+        <v>108.9481836666667</v>
       </c>
       <c r="H2">
-        <v>371.966842</v>
+        <v>326.844551</v>
       </c>
       <c r="I2">
-        <v>0.1954468191201632</v>
+        <v>0.1523660837152667</v>
       </c>
       <c r="J2">
-        <v>0.2134822208566356</v>
+        <v>0.1650457680857909</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2939176666666667</v>
+        <v>0.08219466666666668</v>
       </c>
       <c r="N2">
-        <v>0.881753</v>
+        <v>0.246584</v>
       </c>
       <c r="O2">
-        <v>0.05105130446133038</v>
+        <v>0.01551908118057144</v>
       </c>
       <c r="P2">
-        <v>0.06158055498365354</v>
+        <v>0.01610836182747308</v>
       </c>
       <c r="Q2">
-        <v>36.44254209266956</v>
+        <v>8.954959640420446</v>
       </c>
       <c r="R2">
-        <v>327.9828788340261</v>
+        <v>80.59463676378401</v>
       </c>
       <c r="S2">
-        <v>0.009977815068902022</v>
+        <v>0.002364581622342969</v>
       </c>
       <c r="T2">
-        <v>0.01314635363949451</v>
+        <v>0.00265861695041913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>123.9889473333333</v>
+        <v>108.9481836666667</v>
       </c>
       <c r="H3">
-        <v>371.966842</v>
+        <v>326.844551</v>
       </c>
       <c r="I3">
-        <v>0.1954468191201632</v>
+        <v>0.1523660837152667</v>
       </c>
       <c r="J3">
-        <v>0.2134822208566356</v>
+        <v>0.1650457680857909</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.08219466666666665</v>
+        <v>1.682868333333333</v>
       </c>
       <c r="N3">
-        <v>0.246584</v>
+        <v>5.048605</v>
       </c>
       <c r="O3">
-        <v>0.01427659997674257</v>
+        <v>0.3177404488678863</v>
       </c>
       <c r="P3">
-        <v>0.01722112606374939</v>
+        <v>0.3298054864224351</v>
       </c>
       <c r="Q3">
-        <v>10.19123019641422</v>
+        <v>183.3454482668172</v>
       </c>
       <c r="R3">
-        <v>91.72107176772801</v>
+        <v>1650.109034401355</v>
       </c>
       <c r="S3">
-        <v>0.002790316053305331</v>
+        <v>0.04841286783193079</v>
       </c>
       <c r="T3">
-        <v>0.003676404237741311</v>
+        <v>0.0544329998254987</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>123.9889473333333</v>
+        <v>108.9481836666667</v>
       </c>
       <c r="H4">
-        <v>371.966842</v>
+        <v>326.844551</v>
       </c>
       <c r="I4">
-        <v>0.1954468191201632</v>
+        <v>0.1523660837152667</v>
       </c>
       <c r="J4">
-        <v>0.2134822208566356</v>
+        <v>0.1650457680857909</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.236503</v>
+        <v>0.581259</v>
       </c>
       <c r="N4">
-        <v>3.709509</v>
+        <v>1.162518</v>
       </c>
       <c r="O4">
-        <v>0.2147713400022968</v>
+        <v>0.1097468482294607</v>
       </c>
       <c r="P4">
-        <v>0.2590675880171177</v>
+        <v>0.0759427236761118</v>
       </c>
       <c r="Q4">
-        <v>153.3127053445087</v>
+        <v>63.32711228990301</v>
       </c>
       <c r="R4">
-        <v>1379.814348100578</v>
+        <v>379.962673739418</v>
       </c>
       <c r="S4">
-        <v>0.04197637524162397</v>
+        <v>0.01672169746481667</v>
       </c>
       <c r="T4">
-        <v>0.05530632404186619</v>
+        <v>0.01253402515965085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>123.9889473333333</v>
+        <v>108.9481836666667</v>
       </c>
       <c r="H5">
-        <v>371.966842</v>
+        <v>326.844551</v>
       </c>
       <c r="I5">
-        <v>0.1954468191201632</v>
+        <v>0.1523660837152667</v>
       </c>
       <c r="J5">
-        <v>0.2134822208566356</v>
+        <v>0.1650457680857909</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.9532075</v>
+        <v>2.950039666666667</v>
       </c>
       <c r="N5">
-        <v>5.906415</v>
+        <v>8.850119000000001</v>
       </c>
       <c r="O5">
-        <v>0.5129500956162928</v>
+        <v>0.5569936217220816</v>
       </c>
       <c r="P5">
-        <v>0.412496825827387</v>
+        <v>0.5781434280739799</v>
       </c>
       <c r="Q5">
-        <v>366.165089181905</v>
+        <v>321.4014634279522</v>
       </c>
       <c r="R5">
-        <v>2196.99053509143</v>
+        <v>2892.61317085157</v>
       </c>
       <c r="S5">
-        <v>0.100254464555588</v>
+        <v>0.08486693679617628</v>
       </c>
       <c r="T5">
-        <v>0.08806073847394337</v>
+        <v>0.09542012615022225</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>123.9889473333333</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H6">
-        <v>371.966842</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I6">
-        <v>0.1954468191201632</v>
+        <v>0.2954065074566193</v>
       </c>
       <c r="J6">
-        <v>0.2134822208566356</v>
+        <v>0.3199898083081954</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.191477</v>
+        <v>0.08219466666666668</v>
       </c>
       <c r="N6">
-        <v>3.574431</v>
+        <v>0.246584</v>
       </c>
       <c r="O6">
-        <v>0.2069506599433374</v>
+        <v>0.01551908118057144</v>
       </c>
       <c r="P6">
-        <v>0.2496339051080923</v>
+        <v>0.01610836182747308</v>
       </c>
       <c r="Q6">
-        <v>147.729979001878</v>
+        <v>17.36182546199111</v>
       </c>
       <c r="R6">
-        <v>1329.569811016902</v>
+        <v>156.25642915792</v>
       </c>
       <c r="S6">
-        <v>0.04044784820074388</v>
+        <v>0.004584437570488358</v>
       </c>
       <c r="T6">
-        <v>0.05329240046359016</v>
+        <v>0.005154511613332164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>633.6843799999999</v>
       </c>
       <c r="I7">
-        <v>0.3329640774731549</v>
+        <v>0.2954065074566193</v>
       </c>
       <c r="J7">
-        <v>0.3636892687455194</v>
+        <v>0.3199898083081954</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2939176666666667</v>
+        <v>1.682868333333333</v>
       </c>
       <c r="N7">
-        <v>0.881753</v>
+        <v>5.048605</v>
       </c>
       <c r="O7">
-        <v>0.05105130446133038</v>
+        <v>0.3177404488678863</v>
       </c>
       <c r="P7">
-        <v>0.06158055498365354</v>
+        <v>0.3298054864224351</v>
       </c>
       <c r="Q7">
-        <v>62.08367812423777</v>
+        <v>355.4691254766555</v>
       </c>
       <c r="R7">
-        <v>558.75310311814</v>
+        <v>3199.2221292899</v>
       </c>
       <c r="S7">
-        <v>0.01699825049376803</v>
+        <v>0.09386259627776082</v>
       </c>
       <c r="T7">
-        <v>0.0223961870109482</v>
+        <v>0.1055343943793062</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>633.6843799999999</v>
       </c>
       <c r="I8">
-        <v>0.3329640774731549</v>
+        <v>0.2954065074566193</v>
       </c>
       <c r="J8">
-        <v>0.3636892687455194</v>
+        <v>0.3199898083081954</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.08219466666666665</v>
+        <v>0.581259</v>
       </c>
       <c r="N8">
-        <v>0.246584</v>
+        <v>1.162518</v>
       </c>
       <c r="O8">
-        <v>0.01427659997674257</v>
+        <v>0.1097468482294607</v>
       </c>
       <c r="P8">
-        <v>0.01722112606374939</v>
+        <v>0.0759427236761118</v>
       </c>
       <c r="Q8">
-        <v>17.36182546199111</v>
+        <v>122.77824967814</v>
       </c>
       <c r="R8">
-        <v>156.25642915792</v>
+        <v>736.6694980688399</v>
       </c>
       <c r="S8">
-        <v>0.004753594940709353</v>
+        <v>0.03241993313983663</v>
       </c>
       <c r="T8">
-        <v>0.006263138745099422</v>
+        <v>0.02430089759152126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>633.6843799999999</v>
       </c>
       <c r="I9">
-        <v>0.3329640774731549</v>
+        <v>0.2954065074566193</v>
       </c>
       <c r="J9">
-        <v>0.3636892687455194</v>
+        <v>0.3199898083081954</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,43 +992,43 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.236503</v>
+        <v>2.950039666666667</v>
       </c>
       <c r="N9">
-        <v>3.709509</v>
+        <v>8.850119000000001</v>
       </c>
       <c r="O9">
-        <v>0.2147713400022968</v>
+        <v>0.5569936217220816</v>
       </c>
       <c r="P9">
-        <v>0.2590675880171177</v>
+        <v>0.5781434280739799</v>
       </c>
       <c r="Q9">
-        <v>261.1842123077133</v>
+        <v>623.1313523823578</v>
       </c>
       <c r="R9">
-        <v>2350.65791076942</v>
+        <v>5608.18217144122</v>
       </c>
       <c r="S9">
-        <v>0.07151114109153803</v>
+        <v>0.1645395404685335</v>
       </c>
       <c r="T9">
-        <v>0.09422010164161101</v>
+        <v>0.1850000047240358</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>211.2281266666666</v>
+        <v>109.1710686666667</v>
       </c>
       <c r="H10">
-        <v>633.6843799999999</v>
+        <v>327.513206</v>
       </c>
       <c r="I10">
-        <v>0.3329640774731549</v>
+        <v>0.1526777925792968</v>
       </c>
       <c r="J10">
-        <v>0.3636892687455194</v>
+        <v>0.1653834169091284</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.9532075</v>
+        <v>0.08219466666666668</v>
       </c>
       <c r="N10">
-        <v>5.906415</v>
+        <v>0.246584</v>
       </c>
       <c r="O10">
-        <v>0.5129500956162928</v>
+        <v>0.01551908118057144</v>
       </c>
       <c r="P10">
-        <v>0.412496825827387</v>
+        <v>0.01610836182747308</v>
       </c>
       <c r="Q10">
-        <v>623.8004878829499</v>
+        <v>8.973279598700445</v>
       </c>
       <c r="R10">
-        <v>3742.8029272977</v>
+        <v>80.75951638830402</v>
       </c>
       <c r="S10">
-        <v>0.1707939553766455</v>
+        <v>0.002369419057508555</v>
       </c>
       <c r="T10">
-        <v>0.1500206689450103</v>
+        <v>0.00266405591983607</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>211.2281266666666</v>
+        <v>109.1710686666667</v>
       </c>
       <c r="H11">
-        <v>633.6843799999999</v>
+        <v>327.513206</v>
       </c>
       <c r="I11">
-        <v>0.3329640774731549</v>
+        <v>0.1526777925792968</v>
       </c>
       <c r="J11">
-        <v>0.3636892687455194</v>
+        <v>0.1653834169091284</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.191477</v>
+        <v>1.682868333333333</v>
       </c>
       <c r="N11">
-        <v>3.574431</v>
+        <v>5.048605</v>
       </c>
       <c r="O11">
-        <v>0.2069506599433374</v>
+        <v>0.3177404488678863</v>
       </c>
       <c r="P11">
-        <v>0.2496339051080923</v>
+        <v>0.3298054864224351</v>
       </c>
       <c r="Q11">
-        <v>251.67345467642</v>
+        <v>183.7205343752922</v>
       </c>
       <c r="R11">
-        <v>2265.06109208778</v>
+        <v>1653.48480937763</v>
       </c>
       <c r="S11">
-        <v>0.06890713557049394</v>
+        <v>0.04851191034630381</v>
       </c>
       <c r="T11">
-        <v>0.09078917240285045</v>
+        <v>0.05454435825991947</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>77.63463966666667</v>
+        <v>109.1710686666667</v>
       </c>
       <c r="H12">
-        <v>232.903919</v>
+        <v>327.513206</v>
       </c>
       <c r="I12">
-        <v>0.1223773868778609</v>
+        <v>0.1526777925792968</v>
       </c>
       <c r="J12">
-        <v>0.1336701024397598</v>
+        <v>0.1653834169091284</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2939176666666667</v>
+        <v>0.581259</v>
       </c>
       <c r="N12">
-        <v>0.881753</v>
+        <v>1.162518</v>
       </c>
       <c r="O12">
-        <v>0.05105130446133038</v>
+        <v>0.1097468482294607</v>
       </c>
       <c r="P12">
-        <v>0.06158055498365354</v>
+        <v>0.0759427236761118</v>
       </c>
       <c r="Q12">
-        <v>22.81819214333412</v>
+        <v>63.456666202118</v>
       </c>
       <c r="R12">
-        <v>205.363729290007</v>
+        <v>380.739997212708</v>
       </c>
       <c r="S12">
-        <v>0.006247525236683693</v>
+        <v>0.01675590653020916</v>
       </c>
       <c r="T12">
-        <v>0.00823147909296223</v>
+        <v>0.01255966713094113</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>77.63463966666667</v>
+        <v>109.1710686666667</v>
       </c>
       <c r="H13">
-        <v>232.903919</v>
+        <v>327.513206</v>
       </c>
       <c r="I13">
-        <v>0.1223773868778609</v>
+        <v>0.1526777925792968</v>
       </c>
       <c r="J13">
-        <v>0.1336701024397598</v>
+        <v>0.1653834169091284</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.08219466666666665</v>
+        <v>2.950039666666667</v>
       </c>
       <c r="N13">
-        <v>0.246584</v>
+        <v>8.850119000000001</v>
       </c>
       <c r="O13">
-        <v>0.01427659997674257</v>
+        <v>0.5569936217220816</v>
       </c>
       <c r="P13">
-        <v>0.01722112606374939</v>
+        <v>0.5781434280739799</v>
       </c>
       <c r="Q13">
-        <v>6.381153329188444</v>
+        <v>322.0589830190572</v>
       </c>
       <c r="R13">
-        <v>57.43037996269599</v>
+        <v>2898.530847171515</v>
       </c>
       <c r="S13">
-        <v>0.001747132998654284</v>
+        <v>0.08504055664527528</v>
       </c>
       <c r="T13">
-        <v>0.002301949685069399</v>
+        <v>0.0956153355984317</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>77.63463966666667</v>
+        <v>164.799919</v>
       </c>
       <c r="H14">
-        <v>232.903919</v>
+        <v>329.599838</v>
       </c>
       <c r="I14">
-        <v>0.1223773868778609</v>
+        <v>0.2304757859153342</v>
       </c>
       <c r="J14">
-        <v>0.1336701024397598</v>
+        <v>0.166437097565877</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.236503</v>
+        <v>0.08219466666666668</v>
       </c>
       <c r="N14">
-        <v>3.709509</v>
+        <v>0.246584</v>
       </c>
       <c r="O14">
-        <v>0.2147713400022968</v>
+        <v>0.01551908118057144</v>
       </c>
       <c r="P14">
-        <v>0.2590675880171177</v>
+        <v>0.01610836182747308</v>
       </c>
       <c r="Q14">
-        <v>95.99546485175233</v>
+        <v>13.54567440889867</v>
       </c>
       <c r="R14">
-        <v>863.959183665771</v>
+        <v>81.274046453392</v>
       </c>
       <c r="S14">
-        <v>0.02628315536573767</v>
+        <v>0.003576772431776075</v>
       </c>
       <c r="T14">
-        <v>0.03462959102906962</v>
+        <v>0.002681028989105586</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>77.63463966666667</v>
+        <v>164.799919</v>
       </c>
       <c r="H15">
-        <v>232.903919</v>
+        <v>329.599838</v>
       </c>
       <c r="I15">
-        <v>0.1223773868778609</v>
+        <v>0.2304757859153342</v>
       </c>
       <c r="J15">
-        <v>0.1336701024397598</v>
+        <v>0.166437097565877</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.9532075</v>
+        <v>1.682868333333333</v>
       </c>
       <c r="N15">
-        <v>5.906415</v>
+        <v>5.048605</v>
       </c>
       <c r="O15">
-        <v>0.5129500956162928</v>
+        <v>0.3177404488678863</v>
       </c>
       <c r="P15">
-        <v>0.412496825827387</v>
+        <v>0.3298054864224351</v>
       </c>
       <c r="Q15">
-        <v>229.2712001233975</v>
+        <v>277.3365650209983</v>
       </c>
       <c r="R15">
-        <v>1375.627200740385</v>
+        <v>1664.01939012599</v>
       </c>
       <c r="S15">
-        <v>0.06277349230027079</v>
+        <v>0.07323147966991715</v>
       </c>
       <c r="T15">
-        <v>0.05513849296442259</v>
+        <v>0.05489186792145236</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>77.63463966666667</v>
+        <v>164.799919</v>
       </c>
       <c r="H16">
-        <v>232.903919</v>
+        <v>329.599838</v>
       </c>
       <c r="I16">
-        <v>0.1223773868778609</v>
+        <v>0.2304757859153342</v>
       </c>
       <c r="J16">
-        <v>0.1336701024397598</v>
+        <v>0.166437097565877</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.191477</v>
+        <v>0.581259</v>
       </c>
       <c r="N16">
-        <v>3.574431</v>
+        <v>1.162518</v>
       </c>
       <c r="O16">
-        <v>0.2069506599433374</v>
+        <v>0.1097468482294607</v>
       </c>
       <c r="P16">
-        <v>0.2496339051080923</v>
+        <v>0.0759427236761118</v>
       </c>
       <c r="Q16">
-        <v>92.49988756612102</v>
+        <v>95.79143611802098</v>
       </c>
       <c r="R16">
-        <v>832.4989880950891</v>
+        <v>383.1657444720839</v>
       </c>
       <c r="S16">
-        <v>0.02532608097651443</v>
+        <v>0.02529399109741584</v>
       </c>
       <c r="T16">
-        <v>0.03336858966823598</v>
+        <v>0.01263968650989945</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>160.7828525</v>
+        <v>164.799919</v>
       </c>
       <c r="H17">
-        <v>321.565705</v>
+        <v>329.599838</v>
       </c>
       <c r="I17">
-        <v>0.2534459543858325</v>
+        <v>0.2304757859153342</v>
       </c>
       <c r="J17">
-        <v>0.1845555923361838</v>
+        <v>0.166437097565877</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2939176666666667</v>
+        <v>2.950039666666667</v>
       </c>
       <c r="N17">
-        <v>0.881753</v>
+        <v>8.850119000000001</v>
       </c>
       <c r="O17">
-        <v>0.05105130446133038</v>
+        <v>0.5569936217220816</v>
       </c>
       <c r="P17">
-        <v>0.06158055498365354</v>
+        <v>0.5781434280739799</v>
       </c>
       <c r="Q17">
-        <v>47.25692084681084</v>
+        <v>486.1662981134537</v>
       </c>
       <c r="R17">
-        <v>283.541525080865</v>
+        <v>2916.997788680722</v>
       </c>
       <c r="S17">
-        <v>0.01293874658184358</v>
+        <v>0.1283735427162251</v>
       </c>
       <c r="T17">
-        <v>0.01136503580139912</v>
+        <v>0.09622451414541958</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>160.7828525</v>
+        <v>120.894928</v>
       </c>
       <c r="H18">
-        <v>321.565705</v>
+        <v>362.684784</v>
       </c>
       <c r="I18">
-        <v>0.2534459543858325</v>
+        <v>0.169073830333483</v>
       </c>
       <c r="J18">
-        <v>0.1845555923361838</v>
+        <v>0.1831439091310082</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1550,33 +1550,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.08219466666666665</v>
+        <v>0.08219466666666668</v>
       </c>
       <c r="N18">
         <v>0.246584</v>
       </c>
       <c r="O18">
-        <v>0.01427659997674257</v>
+        <v>0.01551908118057144</v>
       </c>
       <c r="P18">
-        <v>0.01722112606374939</v>
+        <v>0.01610836182747308</v>
       </c>
       <c r="Q18">
-        <v>13.21549296695333</v>
+        <v>9.936918308650668</v>
       </c>
       <c r="R18">
-        <v>79.29295780171998</v>
+        <v>89.43226477785602</v>
       </c>
       <c r="S18">
-        <v>0.003618346506490273</v>
+        <v>0.002623870498455485</v>
       </c>
       <c r="T18">
-        <v>0.003178255121391364</v>
+        <v>0.002950148354780132</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>160.7828525</v>
+        <v>120.894928</v>
       </c>
       <c r="H19">
-        <v>321.565705</v>
+        <v>362.684784</v>
       </c>
       <c r="I19">
-        <v>0.2534459543858325</v>
+        <v>0.169073830333483</v>
       </c>
       <c r="J19">
-        <v>0.1845555923361838</v>
+        <v>0.1831439091310082</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.236503</v>
+        <v>1.682868333333333</v>
       </c>
       <c r="N19">
-        <v>3.709509</v>
+        <v>5.048605</v>
       </c>
       <c r="O19">
-        <v>0.2147713400022968</v>
+        <v>0.3177404488678863</v>
       </c>
       <c r="P19">
-        <v>0.2590675880171177</v>
+        <v>0.3298054864224351</v>
       </c>
       <c r="Q19">
-        <v>198.8084794648075</v>
+        <v>203.4502459918133</v>
       </c>
       <c r="R19">
-        <v>1192.850876788845</v>
+        <v>1831.05221392632</v>
       </c>
       <c r="S19">
-        <v>0.05443292724160622</v>
+        <v>0.05372159474197374</v>
       </c>
       <c r="T19">
-        <v>0.0478123721616056</v>
+        <v>0.06040186603625843</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>160.7828525</v>
+        <v>120.894928</v>
       </c>
       <c r="H20">
-        <v>321.565705</v>
+        <v>362.684784</v>
       </c>
       <c r="I20">
-        <v>0.2534459543858325</v>
+        <v>0.169073830333483</v>
       </c>
       <c r="J20">
-        <v>0.1845555923361838</v>
+        <v>0.1831439091310082</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.9532075</v>
+        <v>0.581259</v>
       </c>
       <c r="N20">
-        <v>5.906415</v>
+        <v>1.162518</v>
       </c>
       <c r="O20">
-        <v>0.5129500956162928</v>
+        <v>0.1097468482294607</v>
       </c>
       <c r="P20">
-        <v>0.412496825827387</v>
+        <v>0.0759427236761118</v>
       </c>
       <c r="Q20">
-        <v>474.8251258743937</v>
+        <v>70.27126495435201</v>
       </c>
       <c r="R20">
-        <v>1899.300503497575</v>
+        <v>421.627589726112</v>
       </c>
       <c r="S20">
-        <v>0.1300051265357753</v>
+        <v>0.01855531999718234</v>
       </c>
       <c r="T20">
-        <v>0.07612859602736907</v>
+        <v>0.01390844728409909</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,362 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>160.7828525</v>
+        <v>120.894928</v>
       </c>
       <c r="H21">
-        <v>321.565705</v>
+        <v>362.684784</v>
       </c>
       <c r="I21">
-        <v>0.2534459543858325</v>
+        <v>0.169073830333483</v>
       </c>
       <c r="J21">
-        <v>0.1845555923361838</v>
+        <v>0.1831439091310082</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1.191477</v>
+        <v>2.950039666666667</v>
       </c>
       <c r="N21">
-        <v>3.574431</v>
+        <v>8.850119000000001</v>
       </c>
       <c r="O21">
-        <v>0.2069506599433374</v>
+        <v>0.5569936217220816</v>
       </c>
       <c r="P21">
-        <v>0.2496339051080923</v>
+        <v>0.5781434280739799</v>
       </c>
       <c r="Q21">
-        <v>191.5690707481425</v>
+        <v>356.6448330988108</v>
       </c>
       <c r="R21">
-        <v>1149.414424488855</v>
+        <v>3209.803497889297</v>
       </c>
       <c r="S21">
-        <v>0.05245080752011703</v>
+        <v>0.09417304509587143</v>
       </c>
       <c r="T21">
-        <v>0.04607133322441868</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>60.75256733333333</v>
-      </c>
-      <c r="H22">
-        <v>182.257702</v>
-      </c>
-      <c r="I22">
-        <v>0.09576576214298856</v>
-      </c>
-      <c r="J22">
-        <v>0.1046028156219012</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.2939176666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.881753</v>
-      </c>
-      <c r="O22">
-        <v>0.05105130446133038</v>
-      </c>
-      <c r="P22">
-        <v>0.06158055498365354</v>
-      </c>
-      <c r="Q22">
-        <v>17.85625283462289</v>
-      </c>
-      <c r="R22">
-        <v>160.706275511606</v>
-      </c>
-      <c r="S22">
-        <v>0.004888967080133056</v>
-      </c>
-      <c r="T22">
-        <v>0.006441499438849462</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>60.75256733333333</v>
-      </c>
-      <c r="H23">
-        <v>182.257702</v>
-      </c>
-      <c r="I23">
-        <v>0.09576576214298856</v>
-      </c>
-      <c r="J23">
-        <v>0.1046028156219012</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M23">
-        <v>0.08219466666666665</v>
-      </c>
-      <c r="N23">
-        <v>0.246584</v>
-      </c>
-      <c r="O23">
-        <v>0.01427659997674257</v>
-      </c>
-      <c r="P23">
-        <v>0.01722112606374939</v>
-      </c>
-      <c r="Q23">
-        <v>4.993537021107555</v>
-      </c>
-      <c r="R23">
-        <v>44.94183318996799</v>
-      </c>
-      <c r="S23">
-        <v>0.001367209477583325</v>
-      </c>
-      <c r="T23">
-        <v>0.001801378274447896</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>60.75256733333333</v>
-      </c>
-      <c r="H24">
-        <v>182.257702</v>
-      </c>
-      <c r="I24">
-        <v>0.09576576214298856</v>
-      </c>
-      <c r="J24">
-        <v>0.1046028156219012</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1.236503</v>
-      </c>
-      <c r="N24">
-        <v>3.709509</v>
-      </c>
-      <c r="O24">
-        <v>0.2147713400022968</v>
-      </c>
-      <c r="P24">
-        <v>0.2590675880171177</v>
-      </c>
-      <c r="Q24">
-        <v>75.12073176536866</v>
-      </c>
-      <c r="R24">
-        <v>676.0865858883179</v>
-      </c>
-      <c r="S24">
-        <v>0.02056774106179087</v>
-      </c>
-      <c r="T24">
-        <v>0.02709919914296523</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>60.75256733333333</v>
-      </c>
-      <c r="H25">
-        <v>182.257702</v>
-      </c>
-      <c r="I25">
-        <v>0.09576576214298856</v>
-      </c>
-      <c r="J25">
-        <v>0.1046028156219012</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.9532075</v>
-      </c>
-      <c r="N25">
-        <v>5.906415</v>
-      </c>
-      <c r="O25">
-        <v>0.5129500956162928</v>
-      </c>
-      <c r="P25">
-        <v>0.412496825827387</v>
-      </c>
-      <c r="Q25">
-        <v>179.414937493055</v>
-      </c>
-      <c r="R25">
-        <v>1076.48962495833</v>
-      </c>
-      <c r="S25">
-        <v>0.04912305684801313</v>
-      </c>
-      <c r="T25">
-        <v>0.04314832941664166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>60.75256733333333</v>
-      </c>
-      <c r="H26">
-        <v>182.257702</v>
-      </c>
-      <c r="I26">
-        <v>0.09576576214298856</v>
-      </c>
-      <c r="J26">
-        <v>0.1046028156219012</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>1.191477</v>
-      </c>
-      <c r="N26">
-        <v>3.574431</v>
-      </c>
-      <c r="O26">
-        <v>0.2069506599433374</v>
-      </c>
-      <c r="P26">
-        <v>0.2496339051080923</v>
-      </c>
-      <c r="Q26">
-        <v>72.38528666861801</v>
-      </c>
-      <c r="R26">
-        <v>651.467580017562</v>
-      </c>
-      <c r="S26">
-        <v>0.01981878767546816</v>
-      </c>
-      <c r="T26">
-        <v>0.02611240934899696</v>
+        <v>0.1058834474558706</v>
       </c>
     </row>
   </sheetData>
